--- a/AnalysisResults.xlsx
+++ b/AnalysisResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4129,6 +4129,2348 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart Title </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="is-IS" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>for p(a|391)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="is-IS" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Conditional Probability'!$B$9:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Conditional Probability'!$C$9:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.463414634146341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.195121951219512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.048780487804878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.048780487804878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.048780487804878</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.048780487804878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.024390243902439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.024390243902439</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.024390243902439</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.024390243902439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="774076976"/>
+        <c:axId val="731849280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="774076976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731849280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="731849280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774076976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart Title </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="is-IS" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>for p(a|293)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="is-IS" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Conditional Probability'!$B$20:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>402.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>403.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>197.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Conditional Probability'!$C$20:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.605263157894736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0263157894736842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="733285472"/>
+        <c:axId val="733928016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="733285472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="733928016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="733928016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="733285472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Conditional Probability for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> p(342|a)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reverse Conditional Probability'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conditional Probability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Reverse Conditional Probability'!$B$2:$B$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>347.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>294.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>296.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>348.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>387.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>287.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>358.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>389.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>403.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>289.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>349.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>336.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>367.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>214.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>293.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>341.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>247.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Reverse Conditional Probability'!$C$2:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>0.0793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0515873015873015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0277777777777777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0277777777777777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0238095238095238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0238095238095238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0198412698412698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0198412698412698</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0198412698412698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0198412698412698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0158730158730158</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0158730158730158</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0158730158730158</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0158730158730158</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0158730158730158</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0158730158730158</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0158730158730158</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0158730158730158</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0119047619047619</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0119047619047619</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0119047619047619</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0119047619047619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0119047619047619</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.00793650793650793</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.00396825396825396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="737498096"/>
+        <c:axId val="735552464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="737498096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735552464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="735552464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737498096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Conditional Probability for p(176|a)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Reverse Conditional Probability'!$B$82:$B$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>389.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>391.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>294.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>293.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>342.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Reverse Conditional Probability'!$C$82:$C$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.136363636363636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0454545454545454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="712678656"/>
+        <c:axId val="737636784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="712678656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737636784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="737636784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712678656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Conditional Probability for p(211|a)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Reverse Conditional Probability'!$B$101:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>311.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>293.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Reverse Conditional Probability'!$C$101:$C$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.283018867924528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.264150943396226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.113207547169811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0943396226415094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0377358490566037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0377358490566037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0188679245283018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0188679245283018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0188679245283018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0188679245283018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0188679245283018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0188679245283018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0188679245283018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0188679245283018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="682551744"/>
+        <c:axId val="776942544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="682551744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776942544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="776942544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682551744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -11822,6 +14164,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Conditional Probability for p(a|267)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -12123,6 +14490,166 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12403,6 +14930,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12976,6 +15543,2070 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -16563,6 +21194,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -16842,15 +21989,140 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16864,7 +22136,37 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17258,8 +22560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17529,10 +22831,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C79"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="O116" sqref="O116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18180,8 +23482,263 @@
         <v>3.9682539682539602E-3</v>
       </c>
     </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>176</v>
+      </c>
+      <c r="B82">
+        <v>211</v>
+      </c>
+      <c r="C82">
+        <v>0.13636363636363599</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>176</v>
+      </c>
+      <c r="C83">
+        <v>9.0909090909090898E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>25</v>
+      </c>
+      <c r="C84">
+        <v>9.0909090909090898E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>162</v>
+      </c>
+      <c r="C85">
+        <v>9.0909090909090898E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>175</v>
+      </c>
+      <c r="C86">
+        <v>9.0909090909090898E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>330</v>
+      </c>
+      <c r="C87">
+        <v>4.54545454545454E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>15</v>
+      </c>
+      <c r="C88">
+        <v>4.54545454545454E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>389</v>
+      </c>
+      <c r="C89">
+        <v>4.54545454545454E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>28</v>
+      </c>
+      <c r="C90">
+        <v>4.54545454545454E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>53</v>
+      </c>
+      <c r="C91">
+        <v>4.54545454545454E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>254</v>
+      </c>
+      <c r="C92">
+        <v>4.54545454545454E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>391</v>
+      </c>
+      <c r="C93">
+        <v>4.54545454545454E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>4.54545454545454E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>81</v>
+      </c>
+      <c r="C95">
+        <v>4.54545454545454E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>294</v>
+      </c>
+      <c r="C96">
+        <v>4.54545454545454E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>293</v>
+      </c>
+      <c r="C97">
+        <v>4.54545454545454E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>342</v>
+      </c>
+      <c r="C98">
+        <v>4.54545454545454E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>211</v>
+      </c>
+      <c r="B101">
+        <v>89</v>
+      </c>
+      <c r="C101">
+        <v>0.28301886792452802</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>59</v>
+      </c>
+      <c r="C102">
+        <v>0.26415094339622602</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>72</v>
+      </c>
+      <c r="C103">
+        <v>0.113207547169811</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>155</v>
+      </c>
+      <c r="C104">
+        <v>9.4339622641509399E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>176</v>
+      </c>
+      <c r="C105">
+        <v>3.7735849056603703E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>67</v>
+      </c>
+      <c r="C106">
+        <v>3.7735849056603703E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>311</v>
+      </c>
+      <c r="C107">
+        <v>1.8867924528301799E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>293</v>
+      </c>
+      <c r="C108">
+        <v>1.8867924528301799E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>230</v>
+      </c>
+      <c r="C109">
+        <v>1.8867924528301799E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>186</v>
+      </c>
+      <c r="C110">
+        <v>1.8867924528301799E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>98</v>
+      </c>
+      <c r="C111">
+        <v>1.8867924528301799E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>65</v>
+      </c>
+      <c r="C112">
+        <v>1.8867924528301799E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>70</v>
+      </c>
+      <c r="C113">
+        <v>1.8867924528301799E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>102</v>
+      </c>
+      <c r="C114">
+        <v>1.8867924528301799E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
